--- a/test_物件管理/test_契約管理_値上げ更新一覧.xlsx
+++ b/test_物件管理/test_契約管理_値上げ更新一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="865">
   <si>
     <t>URL:</t>
   </si>
@@ -2954,6 +2954,10 @@
   <si>
     <t>csv下载 自行查看</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -17489,7 +17493,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17649,8 +17653,8 @@
     </row>
     <row r="17" spans="1:8" customFormat="1"/>
     <row r="18" spans="1:8" s="124" customFormat="1" ht="14.25">
-      <c r="A18" s="110" t="s">
-        <v>1</v>
+      <c r="A18" s="144" t="s">
+        <v>864</v>
       </c>
       <c r="B18" s="112" t="s">
         <v>788</v>
@@ -17663,8 +17667,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="124" customFormat="1" ht="14.25">
-      <c r="A19" s="110" t="s">
-        <v>1</v>
+      <c r="A19" s="144" t="s">
+        <v>864</v>
       </c>
       <c r="B19" s="112" t="s">
         <v>789</v>
@@ -17677,8 +17681,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="124" customFormat="1" ht="14.25">
-      <c r="A20" s="110" t="s">
-        <v>1</v>
+      <c r="A20" s="144" t="s">
+        <v>864</v>
       </c>
       <c r="B20" s="112" t="s">
         <v>790</v>
@@ -17691,8 +17695,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="124" customFormat="1" ht="14.25">
-      <c r="A21" s="110" t="s">
-        <v>1</v>
+      <c r="A21" s="144" t="s">
+        <v>864</v>
       </c>
       <c r="B21" s="112" t="s">
         <v>791</v>
@@ -18305,7 +18309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
@@ -22924,7 +22928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
